--- a/Data.xlsx
+++ b/Data.xlsx
@@ -4,28 +4,73 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="1000" windowWidth="15000" windowHeight="10000"/>
+    <workbookView xWindow="1000" yWindow="1000" windowWidth="15000" windowHeight="10000" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="CreateNewCustomer" sheetId="1" r:id="rId1"/>
+    <sheet name="Template" sheetId="2" r:id="rId1"/>
+    <sheet name="CreateNewCustomer" sheetId="1" r:id="rId2"/>
+    <sheet name="NewPurchaseOrder" sheetId="3" r:id="rId3"/>
+    <sheet name="NewPurchaseOrderDetails" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>CustomerAccount</t>
   </si>
   <si>
+    <t>Acme Office Supplies</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Surface Pro 128 GB</t>
+  </si>
+  <si>
+    <t>Cabinet</t>
+  </si>
+  <si>
     <t>Inflectra</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Warehouse</t>
+  </si>
+  <si>
+    <t>Site 4 - Main Warehouse</t>
+  </si>
+  <si>
+    <t>USMF</t>
+  </si>
+  <si>
+    <t>Microsoft Natural Keyboard Elite</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
     <t>CustomerGroup</t>
+  </si>
+  <si>
+    <t>Auto system production</t>
   </si>
 </sst>
 </file>
@@ -69,8 +114,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -370,10 +416,30 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection activeCell="$A$1" sqref="$A$1:$A$1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetData/>
+  <sheetProtection/>
+  <printOptions/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="$A$2" sqref="$A$2:$XFD$2"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection activeCell="$C$3" sqref="$C$3:$C$3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -385,25 +451,138 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection/>
+  <printOptions/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection activeCell="$A$1" sqref="$A$1:$A$1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="8.90625" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" customWidth="1"/>
+    <col min="3" max="4" width="21.26953125" customWidth="1"/>
+    <col min="5" max="5" width="21.7265625" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>40</v>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection/>
+  <printOptions/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection activeCell="$B$5" sqref="$B$5:$B$5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="28.6328125" customWidth="1"/>
+    <col min="2" max="16384" width="8.7265625"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
